--- a/biology/Médecine/Pathologie_professionnelle/Pathologie_professionnelle.xlsx
+++ b/biology/Médecine/Pathologie_professionnelle/Pathologie_professionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette rubrique tentera de recenser toutes les pathologies professionnelles, atteintes de la santé liées à une exposition à un risque professionnel qu'il s'agisse d'accident du travail, de maladie professionnelle (qui représentent la partie émergée de l'iceberg[Interprétation personnelle ?]) ou bien de maladies peu répandues ou émergentes dont l'origine professionnelle n'est pas encore officiellement reconnue ou encore d'affections qui se prêtent mal au carcan réglementaire[Interprétation personnelle ?] des tableaux de maladies professionnelles (comme c'est le cas par exemple des affections de stress).
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On peut classer les affections professionnelles en fonction :
 de la cause : produit chimique, agent physique, agent biologique, etc. ;
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Toxicologie professionnelle
-Principales affections
-Saturnisme : intoxication par le plomb
+          <t>Toxicologie professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Principales affections</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Saturnisme : intoxication par le plomb
 Hydrargyrisme : intoxication par le mercure
 Intoxication au cadmium
 Argyrisme : intoxication par l'argent
